--- a/analysis/Top50.xlsx
+++ b/analysis/Top50.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="13605"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TR" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="179">
   <si>
     <t>newsdate</t>
   </si>
@@ -117,15 +117,9 @@
     <t>A New World ‘first': Pope Francis</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>DEATH</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>THANKSGIVING</t>
   </si>
   <si>
@@ -229,6 +223,336 @@
   </si>
   <si>
     <t>EASTER</t>
+  </si>
+  <si>
+    <t>Berkin Elvan yaşam mücadelesini kaybetti</t>
+  </si>
+  <si>
+    <t>İşte demokratikleşme paketi</t>
+  </si>
+  <si>
+    <t>Mutlu yıllar Türkiye</t>
+  </si>
+  <si>
+    <t>Olaylar Taksim çevresine sıçradı</t>
+  </si>
+  <si>
+    <t>Başbakan’dan ilk açıklama</t>
+  </si>
+  <si>
+    <t>Polis Taksim’den çekildi</t>
+  </si>
+  <si>
+    <t>Gezi’ye beklenen müdahale gerçekleşti</t>
+  </si>
+  <si>
+    <t>Taksim savaş alanına döndü</t>
+  </si>
+  <si>
+    <t>AK Parti zaferini ilan etti</t>
+  </si>
+  <si>
+    <t>Başbakan’dan Kazlıçeşme mesajları</t>
+  </si>
+  <si>
+    <t>Yüz binler Berkin’i son yolculuğuna uğurladı</t>
+  </si>
+  <si>
+    <t>AK Parti İstanbul ve Ankara’yı kaybetmedi</t>
+  </si>
+  <si>
+    <t>Elveda Brezilya elveda Dünya Kupası</t>
+  </si>
+  <si>
+    <t>Merdivenler yeniden renklendi; akım başladı</t>
+  </si>
+  <si>
+    <t>Medyaya büyük öfke</t>
+  </si>
+  <si>
+    <t>Efsane başkan Seba yaşamını yitirdi</t>
+  </si>
+  <si>
+    <t>Gezi Parkı boşaltıldı; Jandarma devrede</t>
+  </si>
+  <si>
+    <t>Tuncel Kurtiz yaşamını yitirdi</t>
+  </si>
+  <si>
+    <t>Twitter’a erişim engellendi</t>
+  </si>
+  <si>
+    <t>Beşiktaş’ta yaralılara camide tedavi</t>
+  </si>
+  <si>
+    <t>Başbakan: “Sosyal medya baş belası”</t>
+  </si>
+  <si>
+    <t>Ağaoğlu ve bazı bakan çocukları gözaltında</t>
+  </si>
+  <si>
+    <t>Polis Taksim Meydanı’na girdi; olaylar çıktı</t>
+  </si>
+  <si>
+    <t>Zafer Tokyo’nun</t>
+  </si>
+  <si>
+    <t>“Duran Adam” dalga dalga büyüyor</t>
+  </si>
+  <si>
+    <t>Taksim’de gergin gece</t>
+  </si>
+  <si>
+    <t>Hatay’da bir eylemci daha yaşamını yitirdi</t>
+  </si>
+  <si>
+    <t>DNS’ler de devre dışı kaldı</t>
+  </si>
+  <si>
+    <t>Onbinler İstiklal’de toplandı</t>
+  </si>
+  <si>
+    <t>Resmileşen Ergenekon’a ceza yağmuru</t>
+  </si>
+  <si>
+    <t>Sahaya girenlere 1 yıl men cezası</t>
+  </si>
+  <si>
+    <t>Erdoğan: “Anladığınız dilden yanıt veririz”</t>
+  </si>
+  <si>
+    <t>“Destek verenler de aynı familyadan”</t>
+  </si>
+  <si>
+    <t>Polis Taksim’i kapattı; şiddetin dozu arttı</t>
+  </si>
+  <si>
+    <t>Taksim barut fıçısı</t>
+  </si>
+  <si>
+    <t>Gazeteci Savaş Ay yaşamını yitirdi</t>
+  </si>
+  <si>
+    <t>Mısır’da sevinç ve gözyaşı bir arada</t>
+  </si>
+  <si>
+    <t>Başbakan: “Bir kaç tane çapulcu…”</t>
+  </si>
+  <si>
+    <t>Taksim’de olaylı gece</t>
+  </si>
+  <si>
+    <t>Balkon değil otobüs konuşması</t>
+  </si>
+  <si>
+    <t>Cumhuriyet’in 90′ıncı yılı kutlu olsun</t>
+  </si>
+  <si>
+    <t>Altın Palmiye Nuri Bilge Ceylan’ın oldu</t>
+  </si>
+  <si>
+    <t>Beşiktaş karıştı</t>
+  </si>
+  <si>
+    <t>Arınç: “İsteseydik interneti keserdik”</t>
+  </si>
+  <si>
+    <t>Alkol tartışması doludizgin devam ediyor</t>
+  </si>
+  <si>
+    <t>Kitlesel eylemler 2′inci gününde</t>
+  </si>
+  <si>
+    <t>Erdoğan öğrenci evi denetlemesini doğruladı</t>
+  </si>
+  <si>
+    <t>Taksim’in dört bir yanı gaz</t>
+  </si>
+  <si>
+    <t>Twitter yasağına tepkiler çığ gibi</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>etype</t>
+  </si>
+  <si>
+    <t>GEZI</t>
+  </si>
+  <si>
+    <t>LOCAL ELECTIONS</t>
+  </si>
+  <si>
+    <t>CENCORSHIP</t>
+  </si>
+  <si>
+    <t>CORRUPTION</t>
+  </si>
+  <si>
+    <t>REPUBLIC</t>
+  </si>
+  <si>
+    <t>24 Kasım Öğretmenler Günü kutlu olsun</t>
+  </si>
+  <si>
+    <t>Cumhuriyet’in 91′inci yılı kutlu olsun</t>
+  </si>
+  <si>
+    <t>Twitter yanıtı: “Gayri milli suçlaması sığ ele...</t>
+  </si>
+  <si>
+    <t>Başbakan: “Twitter’in kökünü kazıyacağız”</t>
+  </si>
+  <si>
+    <t>Gerginlik had safhada</t>
+  </si>
+  <si>
+    <t>Büyük Önder Atatürk anılıyor</t>
+  </si>
+  <si>
+    <t>Öğretmenler günü kutlu olsun</t>
+  </si>
+  <si>
+    <t>Suriye’den ürküten işkence fotoğrafları</t>
+  </si>
+  <si>
+    <t>Başbakan: ”Evlerinde zor tuttuğumuz %50 var”</t>
+  </si>
+  <si>
+    <t>Vali ve başkandan Gezi Parkı açıklaması</t>
+  </si>
+  <si>
+    <t>TEACHER'S</t>
+  </si>
+  <si>
+    <t>ATATURK</t>
+  </si>
+  <si>
+    <t>Fenerbahçe 19′uncu kez şampiyon</t>
+  </si>
+  <si>
+    <t>Karanfilli buluşmaya polis müdahalesi</t>
+  </si>
+  <si>
+    <t>Nejat Uygur yaşamını yitirdi</t>
+  </si>
+  <si>
+    <t>“Suriye ile ilgili ses kaydı” iddiası</t>
+  </si>
+  <si>
+    <t>Gezi Parkı eylemlerinde ikinci haftasonu</t>
+  </si>
+  <si>
+    <t>Real facia</t>
+  </si>
+  <si>
+    <t>Paketten beklentiler farklı</t>
+  </si>
+  <si>
+    <t>İstifa eden Bayraktar: “Başbakan istifa etmeli”</t>
+  </si>
+  <si>
+    <t>“Büyük Rüşvet” Türkiye’yi sarstı</t>
+  </si>
+  <si>
+    <t>Kömür ocağında patlama: 300 madenci mahsur</t>
+  </si>
+  <si>
+    <t>Ahmet Hakan’a zor gününde büyük destek</t>
+  </si>
+  <si>
+    <t>Metro istasyonunda biber gazı</t>
+  </si>
+  <si>
+    <t>Türkiye ateş çemberinde</t>
+  </si>
+  <si>
+    <t>Savcı: “Soruşturma yapmam engellendi”</t>
+  </si>
+  <si>
+    <t>Cemaat yayınlarına operasyon başladı</t>
+  </si>
+  <si>
+    <t>Soruşturma Komisyonu: “Yüce Divan’a gerek yok”</t>
+  </si>
+  <si>
+    <t>Erdoğan: “Bundan sonra tahammül yok”</t>
+  </si>
+  <si>
+    <t>Kim bu satırlı saldırganlar?</t>
+  </si>
+  <si>
+    <t>İsrail Gazze’ye kara operasyonunu başlattı</t>
+  </si>
+  <si>
+    <t>Başörtülü milletvekilleri Meclis’te</t>
+  </si>
+  <si>
+    <t>Erdoğan: “Yeni Başbakan adayı Ahmet Davutoğlu”</t>
+  </si>
+  <si>
+    <t>Hollywood’un ünlü aktörü Robin Williams ölü bu...</t>
+  </si>
+  <si>
+    <t>İnançer’e öfke dinmiyor</t>
+  </si>
+  <si>
+    <t>Mustafa Balbay tahliye edildi</t>
+  </si>
+  <si>
+    <t>Kemal Kılıçdaroğlu’na Meclis’te yumruklu saldırı</t>
+  </si>
+  <si>
+    <t>Sisi’den şafak operasyonu: 1000 ölü</t>
+  </si>
+  <si>
+    <t>İstanbul’da sabaha kadar toplu taşıma</t>
+  </si>
+  <si>
+    <t>Dünya Taksim’den canlı yayın yaptı</t>
+  </si>
+  <si>
+    <t>Mısır’da ölenlerin sayısı 91′e yükseldi</t>
+  </si>
+  <si>
+    <t>Muhalefetin “çatı adayı” tartışma yarattı</t>
+  </si>
+  <si>
+    <t>Cenaze sonrası sert müdahale</t>
+  </si>
+  <si>
+    <t>Mısır’da bilanço ağırlaşıyor: 200 ölü</t>
+  </si>
+  <si>
+    <t>Twitter’da Başbakan’a soru yağmuru</t>
+  </si>
+  <si>
+    <t>Kim bu eylemciler; ne istiyorlar?</t>
+  </si>
+  <si>
+    <t>Sneijder 2 dakikada 2 golle Kanarya’yı yıktı</t>
+  </si>
+  <si>
+    <t>Topçu Kışlası için referandum sinyali</t>
+  </si>
+  <si>
+    <t>Başbakan’la ilgili yeni ses kaydı iddiası</t>
+  </si>
+  <si>
+    <t>İyi bayramlar Türkiye</t>
+  </si>
+  <si>
+    <t>Bilanço ağırlaşıyor: “Ölü sayısı 205′e yükseldi”</t>
+  </si>
+  <si>
+    <t>Erdoğan: “Seçimin kaybedeni yok”</t>
+  </si>
+  <si>
+    <t>TAPE</t>
+  </si>
+  <si>
+    <t>PRESIDENTIAL ELECTIONS</t>
   </si>
 </sst>
 </file>
@@ -571,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="A1:E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,10 +934,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,10 +1013,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,10 +1109,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,10 +1154,10 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +1182,10 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +1227,10 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,10 +1244,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,10 +1303,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
         <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,10 +1348,10 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,10 +1376,10 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,7 +1390,7 @@
         <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,13 +1401,13 @@
         <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,13 +1418,13 @@
         <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,13 +1435,13 @@
         <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,7 +1452,7 @@
         <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,13 +1463,13 @@
         <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,7 +1480,7 @@
         <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,13 +1491,13 @@
         <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,7 +1508,7 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,7 +1519,7 @@
         <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,13 +1530,13 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,13 +1547,13 @@
         <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1564,7 @@
         <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,7 +1575,7 @@
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,13 +1586,13 @@
         <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,7 +1603,7 @@
         <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,13 +1614,13 @@
         <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1631,7 @@
         <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,13 +1642,13 @@
         <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1659,13 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1676,1370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B2">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B3">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B4">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B5">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B6">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B7">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B8">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B9">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B10">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B11">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B12">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B13">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41562</v>
+      </c>
+      <c r="B14">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B15">
+        <v>234</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B16">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B18">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41544</v>
+      </c>
+      <c r="B19">
+        <v>228</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B20">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B21">
+        <v>223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B22">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B23">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B24">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41524</v>
+      </c>
+      <c r="B25">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B26">
+        <v>214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B27">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B28">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41720</v>
+      </c>
+      <c r="B29">
+        <v>210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B30">
+        <v>210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41491</v>
+      </c>
+      <c r="B31">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B32">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B33">
+        <v>208</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B34">
+        <v>205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B35">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B36">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B37">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>41458</v>
+      </c>
+      <c r="B38">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B39">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41527</v>
+      </c>
+      <c r="B40">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B41">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41576</v>
+      </c>
+      <c r="B42">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41783</v>
+      </c>
+      <c r="B43">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B44">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41429</v>
+      </c>
+      <c r="B45">
+        <v>191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>41417</v>
+      </c>
+      <c r="B46">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B47">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B48">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B49">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B50">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B51">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B52">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>41941</v>
+      </c>
+      <c r="B53">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B54">
+        <v>177</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B55">
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B56">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B57">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B58">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B59">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>41428</v>
+      </c>
+      <c r="B60">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B61">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B62">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>41447</v>
+      </c>
+      <c r="B63">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B64">
+        <v>171</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B65">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B66">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B67">
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B68">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>41633</v>
+      </c>
+      <c r="B69">
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B70">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B71">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>41510</v>
+      </c>
+      <c r="B72">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B73">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41405</v>
+      </c>
+      <c r="B74">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B75">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B76">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42009</v>
+      </c>
+      <c r="B77">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B78">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B79">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>41838</v>
+      </c>
+      <c r="B80">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B81">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>41872</v>
+      </c>
+      <c r="B82">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>41863</v>
+      </c>
+      <c r="B83">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>41481</v>
+      </c>
+      <c r="B84">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B85">
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B86">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>41500</v>
+      </c>
+      <c r="B87">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>41431</v>
+      </c>
+      <c r="B88">
+        <v>153</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B89">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>41461</v>
+      </c>
+      <c r="B90">
+        <v>150</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>41806</v>
+      </c>
+      <c r="B91">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B92">
+        <v>150</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>41482</v>
+      </c>
+      <c r="B93">
+        <v>149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>41439</v>
+      </c>
+      <c r="B94">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>41429</v>
+      </c>
+      <c r="B95">
+        <v>149</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>41930</v>
+      </c>
+      <c r="B96">
+        <v>148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>41437</v>
+      </c>
+      <c r="B97">
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B98">
+        <v>147</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>41848</v>
+      </c>
+      <c r="B99">
+        <v>147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>41773</v>
+      </c>
+      <c r="B100">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B101">
+        <v>146</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D22"/>
+      <selection activeCell="B42" sqref="B42:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,311 +3057,565 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7067</v>
+        <v>5788</v>
       </c>
       <c r="B2" s="1">
-        <v>41346</v>
+        <v>41756</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6823</v>
+        <v>10990</v>
       </c>
       <c r="B3" s="1">
-        <v>41379</v>
+        <v>41447</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5852</v>
+        <v>9235</v>
       </c>
       <c r="B4" s="1">
-        <v>41512</v>
+        <v>41596</v>
       </c>
       <c r="C4">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1639</v>
+        <v>6431</v>
       </c>
       <c r="B5" s="1">
-        <v>41886</v>
+        <v>41725</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5605</v>
+        <v>11154</v>
       </c>
       <c r="B6" s="1">
-        <v>41539</v>
+        <v>41434</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7397</v>
+        <v>10034</v>
       </c>
       <c r="B7" s="1">
-        <v>41297</v>
+        <v>41534</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2616</v>
+        <v>9896</v>
       </c>
       <c r="B8" s="1">
-        <v>41805</v>
+        <v>41547</v>
       </c>
       <c r="C8">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5726</v>
+        <v>8541</v>
       </c>
       <c r="B9" s="1">
-        <v>41527</v>
+        <v>41633</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6652</v>
+        <v>8737</v>
       </c>
       <c r="B10" s="1">
-        <v>41406</v>
+        <v>41626</v>
       </c>
       <c r="C10">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6028</v>
+        <v>5473</v>
       </c>
       <c r="B11" s="1">
-        <v>41491</v>
+        <v>41772</v>
       </c>
       <c r="C11">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6229</v>
+        <v>10338</v>
       </c>
       <c r="B12" s="1">
-        <v>41468</v>
+        <v>41510</v>
       </c>
       <c r="C12">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>891</v>
+        <v>11266</v>
       </c>
       <c r="B13" s="1">
-        <v>41943</v>
+        <v>41425</v>
       </c>
       <c r="C13">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1928</v>
+        <v>11454</v>
       </c>
       <c r="B14" s="1">
-        <v>41863</v>
+        <v>41405</v>
       </c>
       <c r="C14">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5789</v>
+        <v>8516</v>
       </c>
       <c r="B15" s="1">
-        <v>41520</v>
+        <v>41634</v>
       </c>
       <c r="C15">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7154</v>
+        <v>637</v>
       </c>
       <c r="B16" s="1">
-        <v>41333</v>
+        <v>41987</v>
       </c>
       <c r="C16">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5862</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1">
-        <v>41511</v>
+        <v>42009</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7140</v>
+        <v>11136</v>
       </c>
       <c r="B18" s="1">
-        <v>41335</v>
+        <v>41436</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3361</v>
+        <v>10828</v>
       </c>
       <c r="B19" s="1">
-        <v>41749</v>
+        <v>41462</v>
       </c>
       <c r="C19">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7260</v>
+        <v>3967</v>
       </c>
       <c r="B20" s="1">
-        <v>41318</v>
+        <v>41838</v>
       </c>
       <c r="C20">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>889</v>
+        <v>9517</v>
       </c>
       <c r="B21" s="1">
-        <v>41943</v>
+        <v>41578</v>
       </c>
       <c r="C21">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4810</v>
+        <v>3153</v>
       </c>
       <c r="B22" s="1">
-        <v>41623</v>
+        <v>41872</v>
       </c>
       <c r="C22">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3371</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41863</v>
+      </c>
+      <c r="C23">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10643</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41481</v>
+      </c>
+      <c r="C24">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8879</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41618</v>
+      </c>
+      <c r="C25">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6168</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41737</v>
+      </c>
+      <c r="C26">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10464</v>
+      </c>
+      <c r="B27" s="1">
+        <v>41500</v>
+      </c>
+      <c r="C27">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11179</v>
+      </c>
+      <c r="B28" s="1">
+        <v>41431</v>
+      </c>
+      <c r="C28">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11128</v>
+      </c>
+      <c r="B29" s="1">
+        <v>41436</v>
+      </c>
+      <c r="C29">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10840</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4671</v>
+      </c>
+      <c r="B31" s="1">
+        <v>41806</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6795</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41710</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10629</v>
+      </c>
+      <c r="B33" s="1">
+        <v>41482</v>
+      </c>
+      <c r="C33">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11092</v>
+      </c>
+      <c r="B34" s="1">
+        <v>41439</v>
+      </c>
+      <c r="C34">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11206</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41429</v>
+      </c>
+      <c r="C35">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1866</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41930</v>
+      </c>
+      <c r="C36">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11116</v>
+      </c>
+      <c r="B37" s="1">
+        <v>41437</v>
+      </c>
+      <c r="C37">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7148</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41694</v>
+      </c>
+      <c r="C38">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3722</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41848</v>
+      </c>
+      <c r="C39">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5468</v>
+      </c>
+      <c r="B40" s="1">
+        <v>41773</v>
+      </c>
+      <c r="C40">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3397</v>
+      </c>
+      <c r="B41" s="1">
+        <v>41861</v>
+      </c>
+      <c r="C41">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>